--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Logging_VASTERAS/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
